--- a/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-4.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-4.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="881">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-4.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-4.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71722" uniqueCount="881">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31262,7 +31262,7 @@
         <v>89</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>89</v>
@@ -31277,7 +31277,7 @@
         <v>89</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>89</v>
@@ -31292,7 +31292,7 @@
         <v>89</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>89</v>
@@ -31307,7 +31307,7 @@
         <v>89</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>89</v>
@@ -31331,7 +31331,7 @@
         <v>89</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="AD6" s="5" t="s">
         <v>89</v>
@@ -31967,7 +31967,7 @@
         <v>89</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>89</v>
@@ -31976,7 +31976,7 @@
         <v>89</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>89</v>
@@ -31991,7 +31991,7 @@
         <v>89</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>89</v>
@@ -32039,10 +32039,10 @@
         <v>89</v>
       </c>
       <c r="AG12" s="5" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="AI12" s="5" t="s">
         <v>89</v>
@@ -32095,16 +32095,16 @@
         <v>89</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>89</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>89</v>
@@ -32119,7 +32119,7 @@
         <v>89</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="V13" s="5" t="s">
         <v>89</v>
@@ -32178,13 +32178,13 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>89</v>
@@ -32214,7 +32214,7 @@
         <v>89</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>89</v>
@@ -32238,7 +32238,7 @@
         <v>89</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>89</v>
@@ -32250,7 +32250,7 @@
         <v>89</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>89</v>
@@ -32268,7 +32268,7 @@
         <v>89</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="AG14" s="5" t="s">
         <v>89</v>
@@ -32280,10 +32280,10 @@
         <v>89</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>89</v>
@@ -32684,13 +32684,13 @@
         <v>89</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="S18" s="5" t="s">
         <v>89</v>
@@ -32699,7 +32699,7 @@
         <v>89</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>89</v>
@@ -32735,10 +32735,10 @@
         <v>89</v>
       </c>
       <c r="AG18" s="5" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="AH18" s="5" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="AI18" s="5" t="s">
         <v>89</v>
@@ -32883,7 +32883,7 @@
         <v>89</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>89</v>
@@ -32892,7 +32892,7 @@
         <v>89</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>89</v>
@@ -32901,7 +32901,7 @@
         <v>89</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>89</v>
@@ -32916,7 +32916,7 @@
         <v>89</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>89</v>
@@ -32925,13 +32925,13 @@
         <v>89</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>89</v>
@@ -32949,19 +32949,19 @@
         <v>89</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="AB20" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="AD20" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="AF20" s="5" t="s">
         <v>89</v>
@@ -32973,7 +32973,7 @@
         <v>89</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="AJ20" s="5" t="s">
         <v>89</v>
@@ -33475,10 +33475,10 @@
         <v>89</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>89</v>
@@ -33514,7 +33514,7 @@
         <v>89</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="W25" s="5" t="s">
         <v>89</v>
@@ -33523,7 +33523,7 @@
         <v>89</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>89</v>
@@ -33559,7 +33559,7 @@
         <v>89</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="AL25" s="5" t="s">
         <v>89</v>
@@ -33802,31 +33802,31 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>89</v>
@@ -33847,13 +33847,13 @@
         <v>89</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="T28" s="5" t="s">
         <v>89</v>
@@ -33862,13 +33862,13 @@
         <v>89</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>89</v>
@@ -33877,10 +33877,10 @@
         <v>89</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AC28" s="5" t="s">
         <v>89</v>
@@ -33889,25 +33889,25 @@
         <v>89</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="AL28" s="5" t="s">
         <v>89</v>
@@ -34115,10 +34115,10 @@
         <v>89</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="AD30" s="5" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AE30" s="5" t="s">
         <v>89</v>
@@ -34133,7 +34133,7 @@
         <v>89</v>
       </c>
       <c r="AI30" s="5" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="AJ30" s="5" t="s">
         <v>89</v>
@@ -35001,7 +35001,7 @@
         <v>89</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>89</v>
@@ -35070,7 +35070,7 @@
         <v>89</v>
       </c>
       <c r="AL38" s="5" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39">
@@ -35078,115 +35078,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40">
@@ -35194,115 +35194,115 @@
         <v>87</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41">
@@ -35310,115 +35310,115 @@
         <v>88</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>118</v>
+        <v>267</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>118</v>
+        <v>296</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>118</v>
+        <v>311</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>118</v>
+        <v>347</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>118</v>
+        <v>382</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>118</v>
+        <v>421</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>118</v>
+        <v>455</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>118</v>
+        <v>497</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>118</v>
+        <v>534</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>118</v>
+        <v>561</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>118</v>
+        <v>584</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>118</v>
+        <v>604</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>118</v>
+        <v>618</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>118</v>
+        <v>639</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>118</v>
+        <v>673</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>118</v>
+        <v>703</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>118</v>
+        <v>735</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>118</v>
+        <v>771</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>118</v>
+        <v>802</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>118</v>
+        <v>830</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>118</v>
+        <v>859</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42">
